--- a/Minutes Of Meeting.xlsx
+++ b/Minutes Of Meeting.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Q&amp;A</t>
   </si>
@@ -139,6 +139,33 @@
   </si>
   <si>
     <t>Ілля, Антон, Анатолій</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Rated by</t>
+  </si>
+  <si>
+    <t>Паршиков Анатолій</t>
+  </si>
+  <si>
+    <t>Адамчук Ілля, Адамчук Антон</t>
+  </si>
+  <si>
+    <t>Адамчук Ілля</t>
+  </si>
+  <si>
+    <t>Паршиков Анатолій, Адамчук Антон</t>
+  </si>
+  <si>
+    <t>Адамчук Антон</t>
+  </si>
+  <si>
+    <t>Паршиков Анатолій, Адамчук Ілля</t>
   </si>
 </sst>
 </file>
@@ -151,7 +178,7 @@
     <numFmt numFmtId="166" formatCode="[h]"/>
     <numFmt numFmtId="167" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -257,6 +284,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -284,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
     <border>
       <left/>
@@ -322,11 +365,30 @@
       </top>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -464,8 +526,32 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
+    <col customWidth="1" min="1" max="1" width="36.71"/>
     <col customWidth="1" min="2" max="2" width="88.14"/>
     <col customWidth="1" min="3" max="3" width="18.14"/>
     <col customWidth="1" min="4" max="4" width="15.57"/>
@@ -1275,17 +1361,14 @@
       <c r="H23" s="42"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="37"/>
       <c r="G24" s="12"/>
       <c r="H24" s="42"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="37"/>
       <c r="G25" s="12"/>
       <c r="H25" s="42"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="37"/>
       <c r="G26" s="12"/>
       <c r="H26" s="42"/>
       <c r="I26" s="46"/>
@@ -1310,10 +1393,6 @@
       <c r="AB26" s="46"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
       <c r="E27" s="38"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
@@ -1335,39 +1414,61 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="38"/>
+      <c r="A30" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="59">
+        <v>20.0</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="E31" s="38"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="59">
+        <v>20.0</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="38"/>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="61">
+        <v>20.0</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>50</v>
+      </c>
       <c r="D33" s="40"/>
       <c r="E33" s="38"/>
       <c r="F33" s="19"/>

--- a/Minutes Of Meeting.xlsx
+++ b/Minutes Of Meeting.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Q&amp;A</t>
   </si>
@@ -141,6 +141,15 @@
     <t>Ілля, Антон, Анатолій</t>
   </si>
   <si>
+    <t>3/31/2024</t>
+  </si>
+  <si>
+    <t>Проаналізували можливості покращення системи, обрали найкращу запропоновану ідею та додали опис на Trello.</t>
+  </si>
+  <si>
+    <t>Demo 1</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
   </si>
   <si>
     <t>Паршиков Анатолій, Адамчук Ілля</t>
+  </si>
+  <si>
+    <t>Demo 2</t>
   </si>
 </sst>
 </file>
@@ -388,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -522,6 +534,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1361,6 +1379,18 @@
       <c r="H23" s="42"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="G24" s="12"/>
       <c r="H24" s="42"/>
     </row>
@@ -1399,45 +1429,47 @@
       <c r="H27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="B29" s="43"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="38"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="A30" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="59">
+      <c r="A31" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="61">
         <v>20.0</v>
       </c>
-      <c r="C31" s="60" t="s">
-        <v>46</v>
+      <c r="C31" s="62" t="s">
+        <v>49</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="19"/>
@@ -1445,14 +1477,14 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="59">
+      <c r="A32" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="61">
         <v>20.0</v>
       </c>
-      <c r="C32" s="60" t="s">
-        <v>48</v>
+      <c r="C32" s="62" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="19"/>
@@ -1460,14 +1492,14 @@
       <c r="H32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="61">
+      <c r="A33" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="63">
         <v>20.0</v>
       </c>
-      <c r="C33" s="60" t="s">
-        <v>50</v>
+      <c r="C33" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="38"/>
@@ -1486,7 +1518,9 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="37"/>
+      <c r="A35" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
@@ -1496,19 +1530,31 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="38"/>
+      <c r="A36" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" s="40"/>
       <c r="E37" s="38"/>
       <c r="F37" s="19"/>
@@ -1516,9 +1562,15 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>51</v>
+      </c>
       <c r="D38" s="40"/>
       <c r="E38" s="38"/>
       <c r="F38" s="19"/>
@@ -1526,9 +1578,15 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="63">
+        <v>10.0</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>53</v>
+      </c>
       <c r="D39" s="40"/>
       <c r="E39" s="38"/>
       <c r="F39" s="19"/>
